--- a/medicine/Enfance/Cours_moyen_2e_année/Cours_moyen_2e_année.xlsx
+++ b/medicine/Enfance/Cours_moyen_2e_année/Cours_moyen_2e_année.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cours_moyen_2e_ann%C3%A9e</t>
+          <t>Cours_moyen_2e_année</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le cours moyen 2e année (CM2), ou deuxième année du cycle 3, est la dernière année de l'école primaire en France. La dernière année du cycle 3 se poursuit en 6e, au collège. Les enfants y accèdent au mois de septembre de l'année où ils fêtent leur dixième anniversaire. L'âge typique des élèves durant cette année scolaire est donc de 10 à 11 ans.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cours_moyen_2e_ann%C3%A9e</t>
+          <t>Cours_moyen_2e_année</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cours_moyen_2e_ann%C3%A9e</t>
+          <t>Cours_moyen_2e_année</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -540,10 +554,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Horaires et matières
-Les élèves du CM2 bénéficient d'un enseignement multiple et complet de vingt-six heures hebdomadaires[2]. Ces horaires sont communs aux trois niveaux du cycle 3.
-Domaines transversaux
-13 heures réparties dans tous les champs disciplinaires (dont 2 heures quotidiennes pour les activités de lecture et d'écriture)
+          <t>Horaires et matières</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les élèves du CM2 bénéficient d'un enseignement multiple et complet de vingt-six heures hebdomadaires. Ces horaires sont communs aux trois niveaux du cycle 3.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cours_moyen_2e_année</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cours_moyen_2e_ann%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Programmes actuels</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Domaines transversaux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>13 heures réparties dans tous les champs disciplinaires (dont 2 heures quotidiennes pour les activités de lecture et d'écriture)
 1 heure répartie dans tous les champs disciplinaires
 30 minutes pour le débat hebdomadaire</t>
         </is>
